--- a/data/trans_orig/P15D$nada-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15D$nada-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2660</v>
+        <v>2560</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11973</v>
+        <v>11420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1831316947581584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07888927250802275</v>
+        <v>0.07593472351700317</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3551315357319722</v>
+        <v>0.3387098455540096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4947</v>
+        <v>5341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.176421542106819</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4672962249353661</v>
+        <v>0.5045324393409588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3774</v>
+        <v>3554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13476</v>
+        <v>14030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1815281165774565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08519667494473389</v>
+        <v>0.08023311389830985</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3041913887206072</v>
+        <v>0.3166963517555275</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>2828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8106</v>
+        <v>7759</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08388771165073365</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02667581761591964</v>
+        <v>0.02543805798908107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2404309752249967</v>
+        <v>0.2301365142126618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,19 +836,19 @@
         <v>4010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7011</v>
+        <v>7013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3788094235893572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09957690271160553</v>
+        <v>0.09724308878873304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6622683851410307</v>
+        <v>0.6623829735358528</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6839</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2903</v>
+        <v>2951</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12417</v>
+        <v>12962</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1543674826564803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06552137387135067</v>
+        <v>0.06660981589506179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2802775122995178</v>
+        <v>0.2925740260847001</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>18520</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12155</v>
+        <v>12793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24646</v>
+        <v>23952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5492973008870431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3605203853534099</v>
+        <v>0.3794457035921022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7310059741173527</v>
+        <v>0.7104168234001818</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>4709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1920</v>
+        <v>1813</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7792</v>
+        <v>8481</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4447690343038238</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1813232419259506</v>
+        <v>0.1712465574669983</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7359502229751734</v>
+        <v>0.8010786717595247</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -928,19 +928,19 @@
         <v>23228</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16871</v>
+        <v>17010</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29619</v>
+        <v>30722</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5243173553822302</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3808266506978596</v>
+        <v>0.3839570319983658</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6685682457808128</v>
+        <v>0.6934760912061572</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1904</v>
+        <v>2259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11871</v>
+        <v>12116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1836832927040649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05647638026993</v>
+        <v>0.06701456850268271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3520857801680221</v>
+        <v>0.3593591094647288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>6193</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2368</v>
+        <v>1993</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13365</v>
+        <v>12303</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1397870453838329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05346211676436875</v>
+        <v>0.04498174146867923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.301674726579441</v>
+        <v>0.277697108650912</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>11156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5959</v>
+        <v>5879</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17272</v>
+        <v>16858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3193203334426478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1705819880923471</v>
+        <v>0.1682836329582971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.494395759409018</v>
+        <v>0.4825518815282067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1045,19 +1045,19 @@
         <v>3972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>978</v>
+        <v>995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8250</v>
+        <v>8320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2141137158065596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05272896244821369</v>
+        <v>0.05364883880061391</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4446877128564753</v>
+        <v>0.4484459783586922</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1066,19 +1066,19 @@
         <v>15128</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9067</v>
+        <v>9065</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22463</v>
+        <v>22399</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2828293510491455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1695128284286768</v>
+        <v>0.1694680400053189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4199543416272472</v>
+        <v>0.4187650326048576</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>3899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>952</v>
+        <v>984</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8654</v>
+        <v>8295</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1115910017371395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02726032972025447</v>
+        <v>0.02816586584209977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2477094251535153</v>
+        <v>0.23744687024624</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>3899</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9243</v>
+        <v>9965</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07288559164831215</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01901712468707164</v>
+        <v>0.0191555728593686</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1728015031470663</v>
+        <v>0.1863014829075416</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>15975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10256</v>
+        <v>10506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22163</v>
+        <v>22595</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4572595592453903</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2935656636396679</v>
+        <v>0.3007165741793347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6343937865037501</v>
+        <v>0.6467403346820596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1179,19 +1179,19 @@
         <v>14581</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10303</v>
+        <v>10233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17575</v>
+        <v>17558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7858862841934404</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5553122871435247</v>
+        <v>0.5515540216413082</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9472710375517862</v>
+        <v>0.9463511611993861</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1200,19 +1200,19 @@
         <v>30555</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22915</v>
+        <v>22267</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37494</v>
+        <v>37258</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5712439482844326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.428405968819162</v>
+        <v>0.4162822529015228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.70096519580179</v>
+        <v>0.6965547914891677</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>3907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9940</v>
+        <v>10359</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1118291055748223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02865494992258072</v>
+        <v>0.02783231961552235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2845325483497699</v>
+        <v>0.2965271737530269</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>3907</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10317</v>
+        <v>11544</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07304110901810984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01814586966573729</v>
+        <v>0.01828839188321691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1928830300257705</v>
+        <v>0.2158125012500964</v>
       </c>
     </row>
     <row r="12">
@@ -1296,19 +1296,19 @@
         <v>4400</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1632</v>
+        <v>1494</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9066</v>
+        <v>8951</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.294679496967709</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1092965663603636</v>
+        <v>0.1000453749432254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6071785463170742</v>
+        <v>0.5995196498586164</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5344</v>
+        <v>6069</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1419879900774636</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3983102964805211</v>
+        <v>0.4523949423194097</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1338,19 +1338,19 @@
         <v>6305</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2687</v>
+        <v>2783</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11519</v>
+        <v>12133</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2224163335472034</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09480591520918592</v>
+        <v>0.09816936956863576</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.406353332206373</v>
+        <v>0.4280147000266143</v>
       </c>
     </row>
     <row r="13">
@@ -1367,19 +1367,19 @@
         <v>4486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1067</v>
+        <v>1596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8913</v>
+        <v>8725</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3004707095728374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07145238381034974</v>
+        <v>0.1069245158386494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5969323268695541</v>
+        <v>0.5843671867812026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7076</v>
+        <v>7060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1946332208936685</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5274402654073695</v>
+        <v>0.5262340722816343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1409,19 +1409,19 @@
         <v>7098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3039</v>
+        <v>2932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13744</v>
+        <v>13263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.250381795682321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1072155461198839</v>
+        <v>0.1034305218418055</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4848647105591588</v>
+        <v>0.4678859292420702</v>
       </c>
     </row>
     <row r="14">
@@ -1438,19 +1438,19 @@
         <v>5059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1909</v>
+        <v>1878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9704</v>
+        <v>9191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3388303401071596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1278399118549806</v>
+        <v>0.1257596464598194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6499016669181792</v>
+        <v>0.6155431848558487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1459,19 +1459,19 @@
         <v>7879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4217</v>
+        <v>3775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11430</v>
+        <v>11328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5872534850415003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3143026100397836</v>
+        <v>0.2813758924620638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8519758620437463</v>
+        <v>0.8443867291638485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1480,19 +1480,19 @@
         <v>12938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7859</v>
+        <v>7843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18842</v>
+        <v>18066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.456399697338862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2772541799725304</v>
+        <v>0.2766713944934833</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6646836489087756</v>
+        <v>0.6373191938315405</v>
       </c>
     </row>
     <row r="15">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4199</v>
+        <v>4775</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06601945335229403</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2812554448408031</v>
+        <v>0.3198201676072028</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4294</v>
+        <v>4415</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07612530398736758</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3200343854665781</v>
+        <v>0.3291122107167225</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6344</v>
+        <v>6286</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0708021734316136</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2237883348286903</v>
+        <v>0.2217514747889587</v>
       </c>
     </row>
     <row r="16">
@@ -1584,19 +1584,19 @@
         <v>6322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2308</v>
+        <v>2721</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10905</v>
+        <v>11673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3235753436422762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1181401541686596</v>
+        <v>0.139266911860023</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5581347803663644</v>
+        <v>0.5974527594813489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1605,19 +1605,19 @@
         <v>3371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6886</v>
+        <v>6608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3487864491234646</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09083295483611423</v>
+        <v>0.09078175212948188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7124944027198247</v>
+        <v>0.6837051312742705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1626,19 +1626,19 @@
         <v>9693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4598</v>
+        <v>4507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15416</v>
+        <v>15065</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3319190734719959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1574357813538126</v>
+        <v>0.1543419499482595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5279069193110001</v>
+        <v>0.515886318407811</v>
       </c>
     </row>
     <row r="17">
@@ -1655,19 +1655,19 @@
         <v>3228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7363</v>
+        <v>8047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1652272282458622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04664373069750932</v>
+        <v>0.04708283933890988</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3768689297826534</v>
+        <v>0.4118869732837133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>3228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8837</v>
+        <v>8012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1105445268456571</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03266675348201772</v>
+        <v>0.03299395316686118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3026074153341871</v>
+        <v>0.2743399912439017</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>6762</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2895</v>
+        <v>2749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12233</v>
+        <v>11764</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.346111383965373</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1481812397449144</v>
+        <v>0.1407110076356316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6261292728770397</v>
+        <v>0.6020900319628602</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1739,19 +1739,19 @@
         <v>6294</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2779</v>
+        <v>3057</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8787</v>
+        <v>8788</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6512135508765354</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2875055972801755</v>
+        <v>0.3162948687257294</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9091670451638858</v>
+        <v>0.9092182478705181</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1760,19 +1760,19 @@
         <v>13056</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7765</v>
+        <v>7861</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18986</v>
+        <v>18970</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4470863314173312</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2659068827701944</v>
+        <v>0.2691784250635951</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6501347568350728</v>
+        <v>0.649589568033262</v>
       </c>
     </row>
     <row r="19">
@@ -1789,19 +1789,19 @@
         <v>3225</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7714</v>
+        <v>7642</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1650860441464885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04919899571148068</v>
+        <v>0.04795870277773578</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3948432013809948</v>
+        <v>0.3911482724328189</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1823,19 +1823,19 @@
         <v>3225</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7857</v>
+        <v>8932</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1104500682650158</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03411285213680736</v>
+        <v>0.03476725996239475</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2690366606623548</v>
+        <v>0.3058623057467397</v>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1856,19 @@
         <v>3579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>859</v>
+        <v>811</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7079</v>
+        <v>7024</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3819503571132163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09171458090882727</v>
+        <v>0.08654791016345986</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7554024556683099</v>
+        <v>0.7494981226027497</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3972613596147788</v>
+        <v>0.3971739343439741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1898,19 +1898,19 @@
         <v>4511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8840</v>
+        <v>8803</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2344305101725249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08933119688049125</v>
+        <v>0.09004741950508402</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4594070646647767</v>
+        <v>0.4575072060738292</v>
       </c>
     </row>
     <row r="21">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4622</v>
+        <v>4078</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1044946915500877</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4932479383618208</v>
+        <v>0.4351416456554117</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5043</v>
+        <v>4130</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1026171258201929</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5108528443734034</v>
+        <v>0.4184406600233897</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6090</v>
+        <v>5852</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1035314831022025</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3164765655847134</v>
+        <v>0.3041302694598212</v>
       </c>
     </row>
     <row r="22">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6297</v>
+        <v>6426</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3020202317715064</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6719937069646695</v>
+        <v>0.685697454431018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2019,19 +2019,19 @@
         <v>6950</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3716</v>
+        <v>3695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8995</v>
+        <v>8958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7040957759272143</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3764580571669234</v>
+        <v>0.3743214775894694</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9112965136352472</v>
+        <v>0.907473624099969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2040,19 +2040,19 @@
         <v>9780</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5758</v>
+        <v>5372</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13805</v>
+        <v>14101</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5082886753484549</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2992245502319759</v>
+        <v>0.2791615951488355</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7174303869459394</v>
+        <v>0.7328393221415979</v>
       </c>
     </row>
     <row r="23">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5297</v>
+        <v>5404</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2115347195651896</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.565224400794499</v>
+        <v>0.5766680845871296</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4074</v>
+        <v>5074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09889465210173906</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4127272281304841</v>
+        <v>0.5140502146158287</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2111,19 +2111,19 @@
         <v>2958</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>850</v>
+        <v>917</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7174</v>
+        <v>7334</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1537493313768178</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04419623978417098</v>
+        <v>0.04765547318198828</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3728428069367153</v>
+        <v>0.381126523372897</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3813</v>
+        <v>3775</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2269500939199754</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8194182103714249</v>
+        <v>0.811289207421431</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2165,19 +2165,19 @@
         <v>2591</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5747</v>
+        <v>5414</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.284244121127835</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08915122514308206</v>
+        <v>0.09092311045730468</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6305548631709491</v>
+        <v>0.5940406809763619</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2186,19 +2186,19 @@
         <v>3647</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7293</v>
+        <v>7461</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2648803587811167</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06291491110869372</v>
+        <v>0.06398820809303057</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5297474662090913</v>
+        <v>0.5419595481303947</v>
       </c>
     </row>
     <row r="25">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4935</v>
+        <v>4995</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1155171301170335</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5415227196709784</v>
+        <v>0.5480695750375187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4715</v>
+        <v>4194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07647560408769682</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3424890304909706</v>
+        <v>0.30463007705254</v>
       </c>
     </row>
     <row r="26">
@@ -2278,7 +2278,7 @@
         <v>3597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>840</v>
+        <v>878</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>4653</v>
@@ -2287,7 +2287,7 @@
         <v>0.7730499060800247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1805817896285732</v>
+        <v>0.188710792578569</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2299,19 +2299,19 @@
         <v>4736</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1916</v>
+        <v>1856</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7491</v>
+        <v>7462</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5196094536958193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2102168461353465</v>
+        <v>0.2036849901058355</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8218818455987558</v>
+        <v>0.8187061255323466</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2320,19 +2320,19 @@
         <v>8333</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4662</v>
+        <v>4739</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11317</v>
+        <v>11324</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6052651656116211</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3386010562431593</v>
+        <v>0.3442228590806179</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8220472208334597</v>
+        <v>0.8225249030086482</v>
       </c>
     </row>
     <row r="27">
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4005</v>
+        <v>3305</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08062929505931209</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4394529103726552</v>
+        <v>0.3626457680292951</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3106</v>
+        <v>3881</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05337887151956532</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2256453580257688</v>
+        <v>0.2819305390061135</v>
       </c>
     </row>
     <row r="28">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5502</v>
+        <v>4956</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04750510339278802</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2434707419830809</v>
+        <v>0.2192742837273865</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4397</v>
+        <v>5430</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03762772091756861</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.154116367381933</v>
+        <v>0.1903118298900775</v>
       </c>
     </row>
     <row r="29">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4082</v>
+        <v>4028</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1600253719253621</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6880931204620553</v>
+        <v>0.6788489243894396</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2500,19 +2500,19 @@
         <v>3468</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9062</v>
+        <v>8263</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1534702800894926</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04697582648964426</v>
+        <v>0.04680510401488994</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4009657014396956</v>
+        <v>0.3656347035100353</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2521,19 +2521,19 @@
         <v>4418</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9727</v>
+        <v>9558</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1548332315325769</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04165952907562784</v>
+        <v>0.0414730334153272</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3409087536724758</v>
+        <v>0.334986961977584</v>
       </c>
     </row>
     <row r="30">
@@ -2550,7 +2550,7 @@
         <v>4162</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>5933</v>
@@ -2559,7 +2559,7 @@
         <v>0.7015212465955241</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1812724246210486</v>
+        <v>0.1785049958026343</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -2571,19 +2571,19 @@
         <v>15730</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11072</v>
+        <v>11009</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20248</v>
+        <v>20255</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6960159616258998</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4899264613253946</v>
+        <v>0.4871318334359119</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8959483275868835</v>
+        <v>0.8962562288702944</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -2592,19 +2592,19 @@
         <v>19892</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13936</v>
+        <v>14341</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24215</v>
+        <v>24102</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6971606345430481</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4884245413109999</v>
+        <v>0.5026151340396589</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8486668767224387</v>
+        <v>0.8446953372063231</v>
       </c>
     </row>
     <row r="31">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2804</v>
+        <v>3796</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1384533814791138</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4726532324446706</v>
+        <v>0.6398487475676808</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6862</v>
+        <v>6917</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1030086548918195</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3036094240748914</v>
+        <v>0.3060669168606318</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2663,19 +2663,19 @@
         <v>3149</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7727</v>
+        <v>8209</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1103784130068063</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02907827022788015</v>
+        <v>0.02867718399736302</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.270807770028998</v>
+        <v>0.2876936215994885</v>
       </c>
     </row>
     <row r="32">
@@ -2696,19 +2696,19 @@
         <v>32687</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2655842378328501</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -2717,19 +2717,19 @@
         <v>15712</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1674949376004987</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -2738,19 +2738,19 @@
         <v>48399</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2231587757473505</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
     </row>
     <row r="33">
@@ -2767,19 +2767,19 @@
         <v>16370</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1330071281393734</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -2788,19 +2788,19 @@
         <v>12156</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1295856803154422</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>27</v>
@@ -2809,19 +2809,19 @@
         <v>28526</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1315272877838212</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
     </row>
     <row r="34">
@@ -2838,19 +2838,19 @@
         <v>56905</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4623522388270693</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>58</v>
@@ -2859,19 +2859,19 @@
         <v>60878</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6489744523220928</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>114</v>
@@ -2880,19 +2880,19 @@
         <v>117783</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5430698463968071</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
     </row>
     <row r="35">
@@ -2909,19 +2909,19 @@
         <v>17115</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1390563952007072</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2930,19 +2930,19 @@
         <v>5060</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05394492976196631</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>20</v>
@@ -2951,19 +2951,19 @@
         <v>22175</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1022440900720212</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
     </row>
     <row r="36">
@@ -3227,19 +3227,19 @@
         <v>13158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7789</v>
+        <v>7736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20177</v>
+        <v>19876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2206585360544593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1306152328038307</v>
+        <v>0.1297308983902233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3383633200215465</v>
+        <v>0.3333185780903092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3248,19 +3248,19 @@
         <v>8915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4025</v>
+        <v>4826</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14614</v>
+        <v>14113</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2907510036427067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1312890347489154</v>
+        <v>0.1574142522659277</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4766261874373776</v>
+        <v>0.4602994845082239</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -3269,19 +3269,19 @@
         <v>22073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14848</v>
+        <v>14710</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30145</v>
+        <v>30027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2444607349264186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1644406525639168</v>
+        <v>0.1629131846150067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3338692876651908</v>
+        <v>0.3325630624167858</v>
       </c>
     </row>
     <row r="5">
@@ -3298,19 +3298,19 @@
         <v>3736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8368</v>
+        <v>8660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.062653760833182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01569341899149087</v>
+        <v>0.01543585826967308</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1403355559008747</v>
+        <v>0.1452351599920726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3319,19 +3319,19 @@
         <v>2956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7899</v>
+        <v>7711</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09641494247920804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03065827022538789</v>
+        <v>0.03078908671946015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2576377980532177</v>
+        <v>0.2515023512309185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -3340,19 +3340,19 @@
         <v>6692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2802</v>
+        <v>2830</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12414</v>
+        <v>12922</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07411847861729086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03103217301370723</v>
+        <v>0.03134379402149643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1374863957408052</v>
+        <v>0.1431168623498907</v>
       </c>
     </row>
     <row r="6">
@@ -3369,19 +3369,19 @@
         <v>38235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31098</v>
+        <v>31007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44804</v>
+        <v>45347</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6412069254794845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5215152379488369</v>
+        <v>0.5199841564939444</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7513720821997038</v>
+        <v>0.7604806921441849</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -3390,19 +3390,19 @@
         <v>16627</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10943</v>
+        <v>11485</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22318</v>
+        <v>21997</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5422923889729531</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.356900653918941</v>
+        <v>0.374575172097642</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7278822086174989</v>
+        <v>0.7174147817395009</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -3411,19 +3411,19 @@
         <v>54862</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46099</v>
+        <v>46952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63399</v>
+        <v>63901</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.607617246727029</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5105652929294543</v>
+        <v>0.5200026150232627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7021664278313805</v>
+        <v>0.7077184770170469</v>
       </c>
     </row>
     <row r="7">
@@ -3440,19 +3440,19 @@
         <v>4501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1720</v>
+        <v>1696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9247</v>
+        <v>10033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07548077763287417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02885252128068928</v>
+        <v>0.02843430332089752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1550692159927104</v>
+        <v>0.1682536406020252</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6581</v>
+        <v>7147</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07054166490513215</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2146370130713715</v>
+        <v>0.2330960112070505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -3482,19 +3482,19 @@
         <v>6664</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2980</v>
+        <v>3020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13646</v>
+        <v>12749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07380353972926165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03300181572542761</v>
+        <v>0.03344898916255438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1511302990572616</v>
+        <v>0.141194422555056</v>
       </c>
     </row>
     <row r="8">
@@ -3515,19 +3515,19 @@
         <v>19751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12614</v>
+        <v>12415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28234</v>
+        <v>28591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2399276123655399</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1532349449591912</v>
+        <v>0.1508152393856832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3429831050937627</v>
+        <v>0.3473106207122574</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -3536,19 +3536,19 @@
         <v>10914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5831</v>
+        <v>6073</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16632</v>
+        <v>16831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2869875014345762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1533199223364239</v>
+        <v>0.1596935554515061</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4373411748961879</v>
+        <v>0.4425750940584643</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -3557,19 +3557,19 @@
         <v>30665</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22429</v>
+        <v>21243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40667</v>
+        <v>41188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2547982128611548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1863703799638403</v>
+        <v>0.176514704064401</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3379079007590316</v>
+        <v>0.3422418736435848</v>
       </c>
     </row>
     <row r="9">
@@ -3586,19 +3586,19 @@
         <v>6544</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2626</v>
+        <v>2734</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14344</v>
+        <v>14332</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07949042296854483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03189553377741072</v>
+        <v>0.03321620991286477</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1742497782465602</v>
+        <v>0.1741057858815312</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -3607,19 +3607,19 @@
         <v>4039</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1095</v>
+        <v>956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8876</v>
+        <v>8959</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1062164042181</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02878004236280694</v>
+        <v>0.02513874522650253</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2334014618468026</v>
+        <v>0.2355747559908643</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -3628,19 +3628,19 @@
         <v>10583</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5537</v>
+        <v>4999</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18115</v>
+        <v>18219</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08793564878351436</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04600644833898509</v>
+        <v>0.0415377885774802</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1505223416861869</v>
+        <v>0.1513865080249255</v>
       </c>
     </row>
     <row r="10">
@@ -3657,19 +3657,19 @@
         <v>51973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42701</v>
+        <v>42131</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60875</v>
+        <v>60434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6313509459302619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5187190544242849</v>
+        <v>0.5117956566523255</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7394937254261387</v>
+        <v>0.7341309528151448</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3678,19 +3678,19 @@
         <v>21087</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14770</v>
+        <v>14423</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27405</v>
+        <v>27197</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5544927740017482</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3883886622888286</v>
+        <v>0.3792619129525241</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7206067899720729</v>
+        <v>0.7151492022914816</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -3699,19 +3699,19 @@
         <v>73060</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61878</v>
+        <v>61871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83269</v>
+        <v>83748</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.607064293492651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5141511881809732</v>
+        <v>0.5140936830291524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6918972955964926</v>
+        <v>0.6958781969135686</v>
       </c>
     </row>
     <row r="11">
@@ -3728,19 +3728,19 @@
         <v>4053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1147</v>
+        <v>996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9615</v>
+        <v>10167</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04923101873565339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01393123575520197</v>
+        <v>0.01209432247050007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1168009835808282</v>
+        <v>0.1235051620041421</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6125</v>
+        <v>6287</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05230332034557557</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1610545027757824</v>
+        <v>0.165304939821369</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -3770,19 +3770,19 @@
         <v>6042</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2221</v>
+        <v>2190</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12259</v>
+        <v>12476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05020184486267985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01845129538009277</v>
+        <v>0.01819971591697143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1018655782891155</v>
+        <v>0.103664350324336</v>
       </c>
     </row>
     <row r="12">
@@ -3803,19 +3803,19 @@
         <v>13144</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7530</v>
+        <v>7463</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21097</v>
+        <v>20402</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2461086887050982</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1409947465049844</v>
+        <v>0.1397440503652304</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3950098337466119</v>
+        <v>0.3819978016325221</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3824,19 +3824,19 @@
         <v>7690</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3072</v>
+        <v>3758</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13187</v>
+        <v>13478</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2616873660706062</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1045316830076265</v>
+        <v>0.1278591762079918</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.448736712424256</v>
+        <v>0.4586175664658651</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -3845,19 +3845,19 @@
         <v>20835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14080</v>
+        <v>13005</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29824</v>
+        <v>29419</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2516382269002529</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1700599964739831</v>
+        <v>0.1570679964347321</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3602051802730691</v>
+        <v>0.3553217607962892</v>
       </c>
     </row>
     <row r="13">
@@ -3874,19 +3874,19 @@
         <v>6319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2411</v>
+        <v>2190</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12456</v>
+        <v>12232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1183233062814703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0451384802508744</v>
+        <v>0.04099783523080385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2332172175503412</v>
+        <v>0.2290220715680933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3895,19 +3895,19 @@
         <v>2831</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7822</v>
+        <v>7021</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09633230998851461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02991398360761898</v>
+        <v>0.0302117064912947</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2661774425345834</v>
+        <v>0.2388953735538207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3916,19 +3916,19 @@
         <v>9150</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4225</v>
+        <v>4400</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16826</v>
+        <v>16043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.11051776213299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05103074452729954</v>
+        <v>0.05314590772899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2032220913339911</v>
+        <v>0.1937625822226457</v>
       </c>
     </row>
     <row r="14">
@@ -3945,19 +3945,19 @@
         <v>28556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19897</v>
+        <v>20222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36248</v>
+        <v>36419</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5346755619096452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.372543264273406</v>
+        <v>0.3786242715627765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6786963969878946</v>
+        <v>0.6818942014028241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -3966,19 +3966,19 @@
         <v>16783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11179</v>
+        <v>11077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22393</v>
+        <v>21667</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5710781399668956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3803918792053135</v>
+        <v>0.376928068984639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.761985937651649</v>
+        <v>0.7372691175878996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -3987,19 +3987,19 @@
         <v>45339</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36094</v>
+        <v>36452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54040</v>
+        <v>55212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.547596392160314</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4359348762175876</v>
+        <v>0.4402610120218326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6526877650609206</v>
+        <v>0.666847940954536</v>
       </c>
     </row>
     <row r="15">
@@ -4016,19 +4016,19 @@
         <v>5388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1907</v>
+        <v>1739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12568</v>
+        <v>12199</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1008924431037863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03571158949891789</v>
+        <v>0.03256897998659345</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.235315947216827</v>
+        <v>0.2284125430831934</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6339</v>
+        <v>6236</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07090218397398358</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2156854384374219</v>
+        <v>0.2121948632716117</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -4058,19 +4058,19 @@
         <v>7472</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2949</v>
+        <v>3490</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14611</v>
+        <v>15662</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09024761880644309</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03561315168164783</v>
+        <v>0.04215697493204856</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1764747984794996</v>
+        <v>0.1891660793525334</v>
       </c>
     </row>
     <row r="16">
@@ -4091,19 +4091,19 @@
         <v>8004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3818</v>
+        <v>3750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13599</v>
+        <v>13291</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2213321559802865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.105585668559791</v>
+        <v>0.1037158101926441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3760729894257568</v>
+        <v>0.367550785350301</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4112,19 +4112,19 @@
         <v>8817</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4190</v>
+        <v>4353</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15558</v>
+        <v>14965</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2520277676565822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1197547702704154</v>
+        <v>0.1244132628940827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4447138258619577</v>
+        <v>0.4277544954169405</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -4133,19 +4133,19 @@
         <v>16821</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10833</v>
+        <v>9658</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25451</v>
+        <v>24417</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2364263020577388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1522733444990661</v>
+        <v>0.1357514616542559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3577324834574467</v>
+        <v>0.3431941753001885</v>
       </c>
     </row>
     <row r="17">
@@ -4162,19 +4162,19 @@
         <v>5571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2126</v>
+        <v>2154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11433</v>
+        <v>11615</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1540539830165429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05879869813228909</v>
+        <v>0.05956941165507016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3161715736698684</v>
+        <v>0.3212058487619215</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9802</v>
+        <v>9196</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08239655019527553</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2801676752538312</v>
+        <v>0.2628598938058719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -4204,19 +4204,19 @@
         <v>8453</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3907</v>
+        <v>3262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16050</v>
+        <v>15815</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1188174231478015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05491050145149705</v>
+        <v>0.04584769745248481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2255956709865517</v>
+        <v>0.2222980481967057</v>
       </c>
     </row>
     <row r="18">
@@ -4233,19 +4233,19 @@
         <v>17634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11561</v>
+        <v>11993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23705</v>
+        <v>24012</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4876491305898061</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3196993483807934</v>
+        <v>0.3316489102322401</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6555288182191942</v>
+        <v>0.6640280787261624</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -4254,19 +4254,19 @@
         <v>21220</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14589</v>
+        <v>14729</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27386</v>
+        <v>27150</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6065430166176179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.416995573015225</v>
+        <v>0.4210005102368668</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7827897096438168</v>
+        <v>0.776060372845916</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -4275,19 +4275,19 @@
         <v>38853</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29185</v>
+        <v>29870</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47214</v>
+        <v>47088</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5461135685148405</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4102183978413286</v>
+        <v>0.4198535808974341</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6636301128955983</v>
+        <v>0.6618584675258888</v>
       </c>
     </row>
     <row r="19">
@@ -4304,19 +4304,19 @@
         <v>4953</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1416</v>
+        <v>1470</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10981</v>
+        <v>10449</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1369647304133645</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03915967362944126</v>
+        <v>0.04064868773126792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3036777944393783</v>
+        <v>0.2889446239344379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6590</v>
+        <v>6567</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0590326655305243</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1883766663062717</v>
+        <v>0.1877089086142625</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -4346,19 +4346,19 @@
         <v>7018</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3100</v>
+        <v>2226</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14520</v>
+        <v>14142</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09864270627961921</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04357657656347547</v>
+        <v>0.03128176498302562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2040969419240198</v>
+        <v>0.1987800426878115</v>
       </c>
     </row>
     <row r="20">
@@ -4379,19 +4379,19 @@
         <v>3037</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6330</v>
+        <v>7233</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2350624548541046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07488308474582431</v>
+        <v>0.07496108833269634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4899078213853147</v>
+        <v>0.5598134813083374</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -4400,19 +4400,19 @@
         <v>12106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6420</v>
+        <v>6427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19289</v>
+        <v>19529</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2899206786807077</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1537461630582902</v>
+        <v>0.1539111768375375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4619320615482422</v>
+        <v>0.4676920971881821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -4421,19 +4421,19 @@
         <v>15143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8566</v>
+        <v>8799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23867</v>
+        <v>22505</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2769573763641369</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1566703052840413</v>
+        <v>0.1609171895696653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4365036974743108</v>
+        <v>0.4115842057580512</v>
       </c>
     </row>
     <row r="21">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7454</v>
+        <v>7578</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05172760175158733</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1785204907942236</v>
+        <v>0.181469039110238</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7657</v>
+        <v>6524</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03950408278136838</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1400319400330507</v>
+        <v>0.1193253112703466</v>
       </c>
     </row>
     <row r="22">
@@ -4513,19 +4513,19 @@
         <v>8752</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5425</v>
+        <v>4485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11905</v>
+        <v>11890</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6773154290017933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.419868226086246</v>
+        <v>0.3471300750745491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9213587196991212</v>
+        <v>0.9202172397736779</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -4534,19 +4534,19 @@
         <v>27491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20228</v>
+        <v>20403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33501</v>
+        <v>33447</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.658351719567705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4844112285241918</v>
+        <v>0.4886074246274756</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8022751056112056</v>
+        <v>0.8009847841579891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -4555,19 +4555,19 @@
         <v>36242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27953</v>
+        <v>28602</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43804</v>
+        <v>43070</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6628329492045726</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.511236598646211</v>
+        <v>0.5230945942311088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8011298543565305</v>
+        <v>0.7876972605245968</v>
       </c>
     </row>
     <row r="23">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5828</v>
+        <v>5807</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08762211614410205</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4510262962483748</v>
+        <v>0.4493992461408365</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6316</v>
+        <v>4636</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02070559164992204</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1155205298868089</v>
+        <v>0.0847888479637042</v>
       </c>
     </row>
     <row r="24">
@@ -4651,19 +4651,19 @@
         <v>8081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3835</v>
+        <v>3756</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12860</v>
+        <v>11885</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4671690293915707</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2216772372487801</v>
+        <v>0.2171622950957116</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7434630384392549</v>
+        <v>0.6870976985428536</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -4672,19 +4672,19 @@
         <v>7896</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3959</v>
+        <v>3954</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12814</v>
+        <v>12764</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3117256978756931</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1562934648720126</v>
+        <v>0.1560844192574845</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5058566282707746</v>
+        <v>0.5038808902922902</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -4693,19 +4693,19 @@
         <v>15977</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10220</v>
+        <v>10216</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22555</v>
+        <v>22770</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3748020095395939</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2397478500612801</v>
+        <v>0.2396530502481969</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5291041808365764</v>
+        <v>0.5341426124778399</v>
       </c>
     </row>
     <row r="25">
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5076</v>
+        <v>4284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0584037720554205</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.293423208915199</v>
+        <v>0.2476719011487598</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -4743,19 +4743,19 @@
         <v>5905</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2881</v>
+        <v>2919</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10776</v>
+        <v>10827</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2330939279194128</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1137473881367669</v>
+        <v>0.1152312937888946</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4253917600201162</v>
+        <v>0.4274093411927692</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4764,19 +4764,19 @@
         <v>6915</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2936</v>
+        <v>2900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12193</v>
+        <v>12230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1622075759065117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.068876497482903</v>
+        <v>0.06802038734960211</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2860315639157583</v>
+        <v>0.2868891769980811</v>
       </c>
     </row>
     <row r="26">
@@ -4793,19 +4793,19 @@
         <v>7116</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3175</v>
+        <v>3193</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11645</v>
+        <v>11599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4113907910691121</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1835395338170947</v>
+        <v>0.1845681291313162</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6731740920009431</v>
+        <v>0.6705552706207867</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -4814,19 +4814,19 @@
         <v>9549</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4791</v>
+        <v>5595</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14360</v>
+        <v>15334</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3769755116282318</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1891438565461171</v>
+        <v>0.2208882530429963</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5668896883859103</v>
+        <v>0.6053284933830619</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4835,19 +4835,19 @@
         <v>16665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10293</v>
+        <v>10063</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22547</v>
+        <v>23141</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3909406580957178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2414508008924406</v>
+        <v>0.2360531512868282</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5289062358708477</v>
+        <v>0.5428568434219189</v>
       </c>
     </row>
     <row r="27">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4574</v>
+        <v>5484</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0630364074838967</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2644190926976971</v>
+        <v>0.3170234748690494</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5958</v>
+        <v>5949</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07820486257666232</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2352011331610012</v>
+        <v>0.2348417895563508</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -4906,19 +4906,19 @@
         <v>3071</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8165</v>
+        <v>8033</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0720497564581767</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02288329697436064</v>
+        <v>0.02278246310824279</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1915293367617198</v>
+        <v>0.1884301266290876</v>
       </c>
     </row>
     <row r="28">
@@ -4939,19 +4939,19 @@
         <v>6137</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2992</v>
+        <v>2978</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11504</v>
+        <v>11388</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2785345412045215</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1358165912829922</v>
+        <v>0.1351496421051038</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.522136612127979</v>
+        <v>0.5168907155268295</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -4960,19 +4960,19 @@
         <v>15307</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8703</v>
+        <v>8837</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22018</v>
+        <v>22761</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2824555007686252</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.160592241633635</v>
+        <v>0.163071473365362</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4062922231350586</v>
+        <v>0.4200120742818862</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -4981,19 +4981,19 @@
         <v>21444</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14795</v>
+        <v>13848</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29350</v>
+        <v>30166</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2813221710603082</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1940991425088611</v>
+        <v>0.181679760705147</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3850541653846155</v>
+        <v>0.3957567765456461</v>
       </c>
     </row>
     <row r="29">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5293</v>
+        <v>5054</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01968275113910539</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09767115339590812</v>
+        <v>0.09326847107274074</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5375</v>
+        <v>4449</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01399357066104589</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07051786058817269</v>
+        <v>0.05836898274122445</v>
       </c>
     </row>
     <row r="30">
@@ -5073,19 +5073,19 @@
         <v>13765</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8661</v>
+        <v>9359</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17899</v>
+        <v>17934</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6247737111466145</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3931153168032259</v>
+        <v>0.4248102529046522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8124254881512911</v>
+        <v>0.8140068914909749</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -5094,19 +5094,19 @@
         <v>27792</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20952</v>
+        <v>20977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35662</v>
+        <v>36459</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.512847239191102</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3866180567281039</v>
+        <v>0.3870886081073376</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6580695864155054</v>
+        <v>0.6727727118304251</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>38</v>
@@ -5115,19 +5115,19 @@
         <v>41557</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32734</v>
+        <v>33025</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49105</v>
+        <v>49703</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5451989106991694</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4294484654842031</v>
+        <v>0.433258055217865</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6442207190936864</v>
+        <v>0.6520710216667672</v>
       </c>
     </row>
     <row r="31">
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6926</v>
+        <v>6451</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09669174764886396</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3143618552083556</v>
+        <v>0.2927959255465138</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -5165,19 +5165,19 @@
         <v>10026</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5408</v>
+        <v>4501</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16715</v>
+        <v>16746</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1850145089011674</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09979732491362334</v>
+        <v>0.08305632155007102</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3084455323533803</v>
+        <v>0.3090142315070963</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -5186,19 +5186,19 @@
         <v>12157</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6769</v>
+        <v>6554</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19084</v>
+        <v>19781</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1594853475794766</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0888072633899014</v>
+        <v>0.08598894417027571</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2503631079422608</v>
+        <v>0.2595125565396691</v>
       </c>
     </row>
     <row r="32">
@@ -5219,19 +5219,19 @@
         <v>71311</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2513005880605759</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>67</v>
@@ -5240,19 +5240,19 @@
         <v>71646</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2816889685887476</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>138</v>
@@ -5261,19 +5261,19 @@
         <v>142957</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2656639118562051</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
     </row>
     <row r="33">
@@ -5290,19 +5290,19 @@
         <v>23180</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08168624819199093</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>21</v>
@@ -5311,19 +5311,19 @@
         <v>21840</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08586949544261159</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>43</v>
@@ -5332,19 +5332,19 @@
         <v>45020</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08366349520988113</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
     </row>
     <row r="34">
@@ -5361,19 +5361,19 @@
         <v>166030</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5850886352451744</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>131</v>
@@ -5382,19 +5382,19 @@
         <v>140550</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5525961285964219</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>289</v>
@@ -5403,19 +5403,19 @@
         <v>306580</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5697307785309935</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
     </row>
     <row r="35">
@@ -5432,19 +5432,19 @@
         <v>23248</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08192452850225881</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -5453,19 +5453,19 @@
         <v>20308</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07984540737221883</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>41</v>
@@ -5474,19 +5474,19 @@
         <v>43556</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0809418144029203</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
     </row>
     <row r="36">
@@ -5750,19 +5750,19 @@
         <v>10421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5102</v>
+        <v>5589</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17090</v>
+        <v>17488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2369536990456557</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1160113909761172</v>
+        <v>0.1270917653315405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3885875767085231</v>
+        <v>0.3976464475388499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5045</v>
+        <v>3948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05248191746737933</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2762495494888283</v>
+        <v>0.2161472393733594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5792,19 +5792,19 @@
         <v>11380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6273</v>
+        <v>6216</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19130</v>
+        <v>19917</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1828242983394253</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1007745365382996</v>
+        <v>0.0998652513222803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3073388102982711</v>
+        <v>0.3199842682390351</v>
       </c>
     </row>
     <row r="5">
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5305</v>
+        <v>5225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02402909648461055</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1206153835961767</v>
+        <v>0.118795582447582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4985</v>
+        <v>4704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05141102413065349</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2729433588449654</v>
+        <v>0.2575471401465565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6347</v>
+        <v>6335</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03206375263082846</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1019641213503196</v>
+        <v>0.1017772903649671</v>
       </c>
     </row>
     <row r="6">
@@ -5892,19 +5892,19 @@
         <v>30538</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23678</v>
+        <v>23559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36451</v>
+        <v>35779</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6943586660231198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5383917132434233</v>
+        <v>0.5356796944981166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8288008218647274</v>
+        <v>0.8135320715509843</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -5913,19 +5913,19 @@
         <v>15284</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11173</v>
+        <v>11253</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17325</v>
+        <v>17323</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8368277482902129</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6117442491094918</v>
+        <v>0.6161198787709101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9485709997704816</v>
+        <v>0.9484746038811962</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -5934,19 +5934,19 @@
         <v>45822</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38149</v>
+        <v>38064</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52151</v>
+        <v>51792</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7361632497719468</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6128883159264861</v>
+        <v>0.6115238406750467</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8378455374903792</v>
+        <v>0.8320784533604562</v>
       </c>
     </row>
     <row r="7">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6070</v>
+        <v>5963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04465853844661391</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1380157796130367</v>
+        <v>0.1355762136395231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5412</v>
+        <v>4526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05927931011175429</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2963392889655821</v>
+        <v>0.2478082849567196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -6005,19 +6005,19 @@
         <v>3047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7238</v>
+        <v>8212</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04894869925779936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0</v>
+        <v>0.01492668984172151</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1162858064322499</v>
+        <v>0.131940022658334</v>
       </c>
     </row>
     <row r="8">
@@ -6038,19 +6038,19 @@
         <v>7980</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3952</v>
+        <v>3901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14164</v>
+        <v>13927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1569145706767927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07771160946309177</v>
+        <v>0.07670192343219537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2785012080024132</v>
+        <v>0.2738463141073892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -6059,19 +6059,19 @@
         <v>4738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1105</v>
+        <v>1359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9888</v>
+        <v>10383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2089131807895103</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04870535837253215</v>
+        <v>0.05993254072042384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4359796452131093</v>
+        <v>0.4578181307160874</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -6080,19 +6080,19 @@
         <v>12718</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7072</v>
+        <v>7113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20965</v>
+        <v>20317</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1729510696279921</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09616611392151969</v>
+        <v>0.09672172465324978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2850967508368921</v>
+        <v>0.2762839057148817</v>
       </c>
     </row>
     <row r="9">
@@ -6109,19 +6109,19 @@
         <v>6484</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2861</v>
+        <v>2770</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12521</v>
+        <v>11511</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1275020120144963</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05626292728549103</v>
+        <v>0.0544700231663363</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2462021054940101</v>
+        <v>0.2263335007222564</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6102</v>
+        <v>5855</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08409976228542022</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2690384171384698</v>
+        <v>0.258187248053556</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -6151,19 +6151,19 @@
         <v>8392</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3732</v>
+        <v>3764</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14658</v>
+        <v>15008</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1141166516990714</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05075082041091525</v>
+        <v>0.05118621681361706</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1993290146083304</v>
+        <v>0.2040853866779461</v>
       </c>
     </row>
     <row r="10">
@@ -6180,19 +6180,19 @@
         <v>33167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25897</v>
+        <v>26120</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38556</v>
+        <v>39167</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6521643701858199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5092083415033628</v>
+        <v>0.513601676056916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7581294450511256</v>
+        <v>0.7701408267071053</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -6201,19 +6201,19 @@
         <v>13921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8984</v>
+        <v>8801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18443</v>
+        <v>18005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6138469402760807</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.396129737937535</v>
+        <v>0.3880529478084423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8132320920124717</v>
+        <v>0.7938965529223098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -6222,19 +6222,19 @@
         <v>47089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38549</v>
+        <v>37925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54891</v>
+        <v>54525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6403471807796379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5242141147370034</v>
+        <v>0.515729357756404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7464460405297898</v>
+        <v>0.7414682749843701</v>
       </c>
     </row>
     <row r="11">
@@ -6251,19 +6251,19 @@
         <v>4090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9356</v>
+        <v>9210</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08042999558600686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02039253079167588</v>
+        <v>0.02077146877712239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.183963676047364</v>
+        <v>0.1811034764813287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6451</v>
+        <v>6294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09314011664898884</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2844409227954891</v>
+        <v>0.2775443626565632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -6293,19 +6293,19 @@
         <v>6203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2134</v>
+        <v>2107</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12338</v>
+        <v>12275</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08434982810949726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0290220862165586</v>
+        <v>0.02865540008810397</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1677841348597423</v>
+        <v>0.1669243808731633</v>
       </c>
     </row>
     <row r="12">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8856</v>
+        <v>9704</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07417611462441397</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.246985010496646</v>
+        <v>0.2706153438803827</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -6347,19 +6347,19 @@
         <v>3775</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8185</v>
+        <v>8337</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1507147692320281</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03831171987149476</v>
+        <v>0.03712551805894843</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3267624796486784</v>
+        <v>0.3328458035916929</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -6368,19 +6368,19 @@
         <v>6435</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2889</v>
+        <v>2727</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12528</v>
+        <v>13559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1056533460465602</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04743168357897617</v>
+        <v>0.04477577561443339</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2056860613811898</v>
+        <v>0.2226157399746946</v>
       </c>
     </row>
     <row r="13">
@@ -6397,19 +6397,19 @@
         <v>5735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2751</v>
+        <v>2535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12107</v>
+        <v>11183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1599295725496812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07671031591632864</v>
+        <v>0.07068646369944184</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3376326919825123</v>
+        <v>0.3118769361841538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -6418,19 +6418,19 @@
         <v>2838</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>798</v>
+        <v>863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7054</v>
+        <v>7040</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1133172054280004</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03184958391949386</v>
+        <v>0.03444910446203919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2816090924626323</v>
+        <v>0.2810483245813761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -6439,19 +6439,19 @@
         <v>8573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4485</v>
+        <v>4579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15087</v>
+        <v>15217</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1407598043515709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0736410278550951</v>
+        <v>0.07517801616100339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2477123505032602</v>
+        <v>0.249846717721479</v>
       </c>
     </row>
     <row r="14">
@@ -6468,19 +6468,19 @@
         <v>23141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17232</v>
+        <v>16347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29053</v>
+        <v>29007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6453556467567935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4805500644041147</v>
+        <v>0.4558803995213581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8102309174143738</v>
+        <v>0.8089506820140842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6489,19 +6489,19 @@
         <v>13901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8696</v>
+        <v>8389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19215</v>
+        <v>18751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5549892407516331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3471873903728184</v>
+        <v>0.3349086183088741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7671320700667252</v>
+        <v>0.7486043834447949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -6510,19 +6510,19 @@
         <v>37043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29422</v>
+        <v>29090</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44607</v>
+        <v>45066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6081916243527586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4830696835138842</v>
+        <v>0.4776169848023675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7323962103100317</v>
+        <v>0.7399339403368296</v>
       </c>
     </row>
     <row r="15">
@@ -6539,19 +6539,19 @@
         <v>4322</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1006</v>
+        <v>1063</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10341</v>
+        <v>10234</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1205386660691113</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02806512851831529</v>
+        <v>0.02964770438528213</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2883776019478117</v>
+        <v>0.2854067364372859</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -6560,19 +6560,19 @@
         <v>4533</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1376</v>
+        <v>1472</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10083</v>
+        <v>11011</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1809787845883384</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05491785947424042</v>
+        <v>0.05878571282237013</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4025654177398738</v>
+        <v>0.4395792748840017</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -6581,19 +6581,19 @@
         <v>8855</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3274</v>
+        <v>3264</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16506</v>
+        <v>17103</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1453952252491102</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0537592401229762</v>
+        <v>0.05359545453551227</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.271010559212946</v>
+        <v>0.28080974566211</v>
       </c>
     </row>
     <row r="16">
@@ -6614,19 +6614,19 @@
         <v>4116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>968</v>
+        <v>1106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8699</v>
+        <v>9391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1427510613410579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03356883687989923</v>
+        <v>0.03835592739968677</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3017302221711637</v>
+        <v>0.3257013964906783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5330</v>
+        <v>5343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04447103384381286</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2176740832653708</v>
+        <v>0.2182114260032615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -6656,19 +6656,19 @@
         <v>5205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2005</v>
+        <v>1987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10573</v>
+        <v>11576</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09761772395971047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03760260605428996</v>
+        <v>0.03727398541804589</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1983073971055928</v>
+        <v>0.2171157518167664</v>
       </c>
     </row>
     <row r="17">
@@ -6685,19 +6685,19 @@
         <v>4264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9280</v>
+        <v>9348</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1478821638790849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.036178950872187</v>
+        <v>0.03531276866740916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3218530030330197</v>
+        <v>0.3242106567252848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -6706,19 +6706,19 @@
         <v>3154</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7702</v>
+        <v>7664</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1288084715686973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04054636224384532</v>
+        <v>0.03997346267963205</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3145583312133411</v>
+        <v>0.3130078341716138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -6727,19 +6727,19 @@
         <v>7418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3192</v>
+        <v>3213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14028</v>
+        <v>13710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1391229132757325</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.059863861025031</v>
+        <v>0.06025519000078823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2631061247861689</v>
+        <v>0.2571283138064221</v>
       </c>
     </row>
     <row r="18">
@@ -6756,19 +6756,19 @@
         <v>17423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11644</v>
+        <v>11628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22701</v>
+        <v>22246</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6042774919165748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4038595039050225</v>
+        <v>0.4032992808600087</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7873429756105299</v>
+        <v>0.7715767521536825</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -6777,19 +6777,19 @@
         <v>18157</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12920</v>
+        <v>13708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22341</v>
+        <v>22335</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7415549991120964</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5276584868283751</v>
+        <v>0.559868582137639</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9124187908274589</v>
+        <v>0.9121767497175085</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -6798,19 +6798,19 @@
         <v>35580</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28547</v>
+        <v>27626</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>42595</v>
+        <v>41960</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6673197214000729</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5354020517607277</v>
+        <v>0.5181380064456811</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7988856207171116</v>
+        <v>0.7869797232597868</v>
       </c>
     </row>
     <row r="19">
@@ -6827,19 +6827,19 @@
         <v>3030</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7505</v>
+        <v>8550</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1050892828632824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03291579868302648</v>
+        <v>0.03337572413250464</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2603165147350787</v>
+        <v>0.2965337574530677</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -6848,19 +6848,19 @@
         <v>3107</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>697</v>
+        <v>946</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7514</v>
+        <v>7637</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1269037320938996</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02847601527574119</v>
+        <v>0.03864391066814776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.306895080757624</v>
+        <v>0.3119203812964778</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -6869,19 +6869,19 @@
         <v>6137</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2046</v>
+        <v>2080</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11461</v>
+        <v>11733</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1151071768544224</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03837018709126179</v>
+        <v>0.03900840901883531</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2149547077921638</v>
+        <v>0.2200653664048564</v>
       </c>
     </row>
     <row r="20">
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6623</v>
+        <v>5735</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1609331084864431</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.473444910915761</v>
+        <v>0.4099424210469196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -6923,19 +6923,19 @@
         <v>5405</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1995</v>
+        <v>1332</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10471</v>
+        <v>10585</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1780487275085544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06572477695578241</v>
+        <v>0.04387396917930111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.344915038615145</v>
+        <v>0.3486671372197832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -6944,19 +6944,19 @@
         <v>7656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3215</v>
+        <v>3251</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13690</v>
+        <v>14070</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1726496325948299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07248566914804594</v>
+        <v>0.07331559362535955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3086995985074132</v>
+        <v>0.3172761627956975</v>
       </c>
     </row>
     <row r="21">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4251</v>
+        <v>5309</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07407369788850501</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3039080854075483</v>
+        <v>0.3794857178281019</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5338</v>
+        <v>5306</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02336643068497404</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1203731781012313</v>
+        <v>0.1196426496717373</v>
       </c>
     </row>
     <row r="22">
@@ -7036,19 +7036,19 @@
         <v>8511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4249</v>
+        <v>4920</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11795</v>
+        <v>11803</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.608392416549187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3037554257640487</v>
+        <v>0.3516828478141051</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8431931351327907</v>
+        <v>0.8437034707961497</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -7057,19 +7057,19 @@
         <v>20814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14653</v>
+        <v>14726</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25438</v>
+        <v>25406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6856075053973808</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4826708050084541</v>
+        <v>0.4850759860759004</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8379233136420062</v>
+        <v>0.8368870522629663</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -7078,19 +7078,19 @@
         <v>29324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22133</v>
+        <v>22364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35744</v>
+        <v>35175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6612501279093397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4990975806528157</v>
+        <v>0.5043032131667909</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8060142939848747</v>
+        <v>0.7931743114389839</v>
       </c>
     </row>
     <row r="23">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6480</v>
+        <v>5694</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1566007770758649</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4632342161286943</v>
+        <v>0.4070634357771881</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -7128,19 +7128,19 @@
         <v>4139</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1051</v>
+        <v>1031</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9918</v>
+        <v>9904</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1363437670940648</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03462067322485704</v>
+        <v>0.03396226470670863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.326716995002345</v>
+        <v>0.3262437948360019</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -7149,19 +7149,19 @@
         <v>6330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2112</v>
+        <v>2988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12465</v>
+        <v>11698</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1427338088108564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04761942628286148</v>
+        <v>0.06737052017912271</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2810873663513753</v>
+        <v>0.2637795984269703</v>
       </c>
     </row>
     <row r="24">
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3959</v>
+        <v>4008</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08446187536793426</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3621307713682793</v>
+        <v>0.3666621907435266</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -7203,19 +7203,19 @@
         <v>7216</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3158</v>
+        <v>3089</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12791</v>
+        <v>12784</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2462613128657002</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1077753852964519</v>
+        <v>0.1054075511757797</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.43654120949602</v>
+        <v>0.4362833323193726</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -7224,19 +7224,19 @@
         <v>8139</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14555</v>
+        <v>14769</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.202297906310603</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0989142488897931</v>
+        <v>0.09891065049833657</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3617710216582465</v>
+        <v>0.3670943229172336</v>
       </c>
     </row>
     <row r="25">
@@ -7253,19 +7253,19 @@
         <v>2858</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6646</v>
+        <v>6085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2614412219062453</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08228921632557204</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6079255779586158</v>
+        <v>0.5565852584206061</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7274,19 +7274,19 @@
         <v>5824</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10732</v>
+        <v>11058</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1987768417816404</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0680215100080734</v>
+        <v>0.06821354358473913</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3662791599478561</v>
+        <v>0.3773982422803361</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -7295,19 +7295,19 @@
         <v>8682</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4623</v>
+        <v>4656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14338</v>
+        <v>14961</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2158037218656901</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1149013525559242</v>
+        <v>0.1157199217158294</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3563711142799947</v>
+        <v>0.3718542656891318</v>
       </c>
     </row>
     <row r="26">
@@ -7324,19 +7324,19 @@
         <v>3718</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7031</v>
+        <v>7037</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3400924989127199</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08008722741215142</v>
+        <v>0.08282976043137329</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6431773948438915</v>
+        <v>0.6437208331674661</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -7345,19 +7345,19 @@
         <v>15155</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9912</v>
+        <v>9795</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21339</v>
+        <v>20739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5172176096550819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3382768545318068</v>
+        <v>0.3342928274128441</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7282837336100898</v>
+        <v>0.7077755486977283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -7366,19 +7366,19 @@
         <v>18873</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12419</v>
+        <v>12818</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26049</v>
+        <v>25439</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4690899809370241</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3086773845165587</v>
+        <v>0.3185961339251848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6474512899940787</v>
+        <v>0.6322841419760015</v>
       </c>
     </row>
     <row r="27">
@@ -7395,19 +7395,19 @@
         <v>3433</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7517</v>
+        <v>7381</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3140044038131005</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08777737635565259</v>
+        <v>0.08819319121484259</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6876123449464145</v>
+        <v>0.6751304726276961</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5055</v>
+        <v>5382</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03774423569757751</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1725049388686873</v>
+        <v>0.1836846960548894</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -7437,19 +7437,19 @@
         <v>4539</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1139</v>
+        <v>1105</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10611</v>
+        <v>10635</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1128083908866828</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02830532017122015</v>
+        <v>0.02745607287350009</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2637398775227139</v>
+        <v>0.2643399032297749</v>
       </c>
     </row>
     <row r="28">
@@ -7470,19 +7470,19 @@
         <v>4036</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1587</v>
+        <v>1547</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7574</v>
+        <v>7392</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2658039750537591</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1045342127770073</v>
+        <v>0.1018864797688846</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4988107869499938</v>
+        <v>0.4868170502394697</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -7491,19 +7491,19 @@
         <v>3922</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1220</v>
+        <v>1249</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10755</v>
+        <v>10505</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09772892739614143</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03039378279230416</v>
+        <v>0.03113335169097984</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2679911689238668</v>
+        <v>0.2617641059538886</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -7512,19 +7512,19 @@
         <v>7958</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3529</v>
+        <v>3309</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14792</v>
+        <v>15106</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1438686968973589</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06380070525367018</v>
+        <v>0.05982457123491491</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2674121503178976</v>
+        <v>0.2730879526860122</v>
       </c>
     </row>
     <row r="29">
@@ -7541,19 +7541,19 @@
         <v>4041</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1558</v>
+        <v>1567</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7557</v>
+        <v>7578</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2660958081917968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1026053468190877</v>
+        <v>0.1031650594723084</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4976418249904777</v>
+        <v>0.4990538441137524</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -7562,19 +7562,19 @@
         <v>4812</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1226</v>
+        <v>1271</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10981</v>
+        <v>11080</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1199175722889384</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0305598151973849</v>
+        <v>0.03166088506394584</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2736181441224114</v>
+        <v>0.2760934913080811</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -7583,19 +7583,19 @@
         <v>8853</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4469</v>
+        <v>4027</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15419</v>
+        <v>15354</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1600462541167837</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08078645007645151</v>
+        <v>0.07280325500635584</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.278739733038295</v>
+        <v>0.2775767295592234</v>
       </c>
     </row>
     <row r="30">
@@ -7612,19 +7612,19 @@
         <v>4557</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1645</v>
+        <v>1699</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8610</v>
+        <v>8844</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3000694909899438</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1083487769726404</v>
+        <v>0.1118833114747844</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5670185811220558</v>
+        <v>0.5824430294274648</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -7633,19 +7633,19 @@
         <v>26457</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19250</v>
+        <v>19353</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32505</v>
+        <v>32625</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6592661941816328</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4796735870706205</v>
+        <v>0.4822531667889329</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8099824636856467</v>
+        <v>0.8129704514357092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -7654,19 +7654,19 @@
         <v>31013</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23025</v>
+        <v>22567</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38715</v>
+        <v>39150</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.560659926791944</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4162490931557332</v>
+        <v>0.407962720878541</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6998793647681762</v>
+        <v>0.7077551353951026</v>
       </c>
     </row>
     <row r="31">
@@ -7683,19 +7683,19 @@
         <v>3335</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7268</v>
+        <v>6876</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2196153830803011</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05409105786193895</v>
+        <v>0.05484945045239259</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4786067311451761</v>
+        <v>0.4528207746408475</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -7704,19 +7704,19 @@
         <v>4940</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11250</v>
+        <v>10850</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1230873061332874</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03041672397917016</v>
+        <v>0.0303607891668714</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2803200080949207</v>
+        <v>0.2703632174799581</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -7725,19 +7725,19 @@
         <v>8275</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3904</v>
+        <v>3631</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15289</v>
+        <v>15009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1495860832141287</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0705842215012568</v>
+        <v>0.0656446207656444</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2763926328385113</v>
+        <v>0.2713251503791007</v>
       </c>
     </row>
     <row r="32">
@@ -7758,19 +7758,19 @@
         <v>32388</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1622372349374258</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -7779,19 +7779,19 @@
         <v>27103</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1424495369794327</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>56</v>
@@ -7800,19 +7800,19 @@
         <v>59491</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1525810898873958</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
     </row>
     <row r="33">
@@ -7829,19 +7829,19 @@
         <v>25475</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.127607582443979</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>19</v>
@@ -7850,19 +7850,19 @@
         <v>19475</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1023582713288297</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>46</v>
@@ -7871,19 +7871,19 @@
         <v>44950</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1152862396046655</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
     </row>
     <row r="34">
@@ -7900,19 +7900,19 @@
         <v>121054</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6063818797338738</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>110</v>
@@ -7921,19 +7921,19 @@
         <v>123689</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6500861036753899</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>226</v>
@@ -7942,19 +7942,19 @@
         <v>244744</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6277089854221737</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
     </row>
     <row r="35">
@@ -7971,19 +7971,19 @@
         <v>22365</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1120307116734854</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>18</v>
@@ -7992,19 +7992,19 @@
         <v>21020</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.110477326165809</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>39</v>
@@ -8013,19 +8013,19 @@
         <v>43385</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1112726792933379</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
     </row>
     <row r="36">
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11329</v>
+        <v>11384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.164484672488833</v>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5014409614766511</v>
+        <v>0.5038812420476746</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10937</v>
+        <v>11091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08584184725326595</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2526591718105604</v>
+        <v>0.2562193020647927</v>
       </c>
     </row>
     <row r="5">
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12164</v>
+        <v>12072</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1283788473941204</v>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5877240162890076</v>
+        <v>0.5832675718767363</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10237</v>
+        <v>9847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.14459019809708</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4531075329792144</v>
+        <v>0.4358735276715129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -8394,19 +8394,19 @@
         <v>5924</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16048</v>
+        <v>15468</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1368392848911587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03413734447488246</v>
+        <v>0.03434534443209202</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3707174335411317</v>
+        <v>0.3573100027231754</v>
       </c>
     </row>
     <row r="6">
@@ -8423,7 +8423,7 @@
         <v>18040</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8523</v>
+        <v>8604</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>20697</v>
@@ -8432,7 +8432,7 @@
         <v>0.8716211526058796</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4118141227781378</v>
+        <v>0.4156937167965584</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -8444,19 +8444,19 @@
         <v>11997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4447</v>
+        <v>4709</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17955</v>
+        <v>19003</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5310414457723204</v>
+        <v>0.5310414457723202</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1968609010292631</v>
+        <v>0.2084481994099592</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.794754736288226</v>
+        <v>0.8411582045242026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -8465,19 +8465,19 @@
         <v>30037</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19463</v>
+        <v>18054</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37989</v>
+        <v>37789</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6938782010639764</v>
+        <v>0.6938782010639762</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4495973382050245</v>
+        <v>0.4170558756960617</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.87756387318016</v>
+        <v>0.8729451277264009</v>
       </c>
     </row>
     <row r="7">
@@ -8510,16 +8510,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13049</v>
+        <v>12329</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1598836836417669</v>
+        <v>0.1598836836417668</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5776044538793422</v>
+        <v>0.5457239624385607</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17062</v>
+        <v>16391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08344066679159926</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3941349675331427</v>
+        <v>0.3786405839288199</v>
       </c>
     </row>
     <row r="8">
@@ -8561,19 +8561,19 @@
         <v>7104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1914</v>
+        <v>2436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16362</v>
+        <v>15833</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2139894859967098</v>
+        <v>0.2139894859967099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05766501045477846</v>
+        <v>0.07337652111032368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4928880933369751</v>
+        <v>0.4769647133823655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -8585,16 +8585,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5631</v>
+        <v>6654</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09540883238249975</v>
+        <v>0.09540883238249977</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3671412619386454</v>
+        <v>0.4338394932254541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -8603,19 +8603,19 @@
         <v>8567</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2903</v>
+        <v>2799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17894</v>
+        <v>17275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1765175684568323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05980710066320467</v>
+        <v>0.05767296721280026</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3686928652544795</v>
+        <v>0.3559341448751986</v>
       </c>
     </row>
     <row r="9">
@@ -8635,16 +8635,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9259</v>
+        <v>11123</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05764719535885616</v>
+        <v>0.05764719535885617</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2789295922275907</v>
+        <v>0.3350625385664888</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -8653,19 +8653,19 @@
         <v>6275</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2962</v>
+        <v>2934</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10337</v>
+        <v>10434</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4091094207219722</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1931293808931701</v>
+        <v>0.1912999355193999</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6739756187807089</v>
+        <v>0.6803158123629744</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -8674,19 +8674,19 @@
         <v>8188</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3808</v>
+        <v>3946</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15397</v>
+        <v>16110</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1687105360116716</v>
+        <v>0.1687105360116717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07846803437742537</v>
+        <v>0.08131477777085781</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3172413616312136</v>
+        <v>0.3319349971441061</v>
       </c>
     </row>
     <row r="10">
@@ -8703,19 +8703,19 @@
         <v>18661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9897</v>
+        <v>9977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26420</v>
+        <v>26325</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5621354683743651</v>
+        <v>0.5621354683743652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2981294406256513</v>
+        <v>0.3005465994975796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.795868705248951</v>
+        <v>0.7930105972574913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -8724,19 +8724,19 @@
         <v>7599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3775</v>
+        <v>3663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11455</v>
+        <v>11513</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4954817468955282</v>
+        <v>0.4954817468955281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2461514548636544</v>
+        <v>0.238843665036246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7468984302849609</v>
+        <v>0.7506820823030931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -8745,19 +8745,19 @@
         <v>26260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17396</v>
+        <v>17387</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34587</v>
+        <v>34197</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5410726501248826</v>
+        <v>0.5410726501248827</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3584356633848623</v>
+        <v>0.3582504112469101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.712645970289335</v>
+        <v>0.7046228742889072</v>
       </c>
     </row>
     <row r="11">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17418</v>
+        <v>16975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1662278502700688</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5246974040859501</v>
+        <v>0.5113446809978381</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16559</v>
+        <v>16459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1136992454066133</v>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3411957323608114</v>
+        <v>0.3391237168708359</v>
       </c>
     </row>
     <row r="12">
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7439</v>
+        <v>7340</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05934792901711802</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1929637689756425</v>
+        <v>0.190397331767981</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -8862,19 +8862,19 @@
         <v>3059</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6930</v>
+        <v>6905</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1003932341150135</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03583346454599513</v>
+        <v>0.03559508875752519</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2274375346518603</v>
+        <v>0.2266285498384628</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -8883,19 +8883,19 @@
         <v>5347</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2312</v>
+        <v>2194</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10560</v>
+        <v>10936</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07746756010240018</v>
+        <v>0.07746756010240016</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03349284962816427</v>
+        <v>0.03179133743464671</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1530057596058068</v>
+        <v>0.1584603065730507</v>
       </c>
     </row>
     <row r="13">
@@ -8925,19 +8925,19 @@
         <v>5908</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2691</v>
+        <v>2931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10326</v>
+        <v>10446</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1939055443277639</v>
+        <v>0.193905544327764</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08830626269885161</v>
+        <v>0.09620983460923051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3389040026459111</v>
+        <v>0.3428512116921283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -8946,19 +8946,19 @@
         <v>5908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2622</v>
+        <v>2729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10446</v>
+        <v>11618</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08560045832842525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03799435838790031</v>
+        <v>0.03954267095436748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1513544180785202</v>
+        <v>0.1683353912440785</v>
       </c>
     </row>
     <row r="14">
@@ -8975,19 +8975,19 @@
         <v>29628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23227</v>
+        <v>23525</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34154</v>
+        <v>34638</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.768577292157553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6025333647373505</v>
+        <v>0.6102611536941472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8859932300939659</v>
+        <v>0.8985358572229082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -8996,19 +8996,19 @@
         <v>19285</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14681</v>
+        <v>14098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23259</v>
+        <v>23301</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6329540930239065</v>
+        <v>0.6329540930239067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4818585359699692</v>
+        <v>0.462728425813034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7633847887454565</v>
+        <v>0.7647818698731745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -9017,19 +9017,19 @@
         <v>48912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41757</v>
+        <v>41262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55834</v>
+        <v>55680</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7087058323390361</v>
+        <v>0.7087058323390358</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6050277044997638</v>
+        <v>0.5978665762741999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8089989688812783</v>
+        <v>0.8067731024528916</v>
       </c>
     </row>
     <row r="15">
@@ -9046,19 +9046,19 @@
         <v>6633</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2560</v>
+        <v>2962</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12543</v>
+        <v>12748</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1720747788253289</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06640501041021246</v>
+        <v>0.07684996489314856</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3253669199362485</v>
+        <v>0.3307003098523825</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -9067,19 +9067,19 @@
         <v>2216</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6011</v>
+        <v>5952</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07274712853331593</v>
+        <v>0.07274712853331591</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0221013447594068</v>
+        <v>0.02170066190542582</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.197302741327845</v>
+        <v>0.1953510833404918</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -9088,19 +9088,19 @@
         <v>8850</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4121</v>
+        <v>4177</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16043</v>
+        <v>15981</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1282261492301387</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05971143176449843</v>
+        <v>0.0605196882738599</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2324566998116156</v>
+        <v>0.2315538276459791</v>
       </c>
     </row>
     <row r="16">
@@ -9121,19 +9121,19 @@
         <v>8738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3973</v>
+        <v>4468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15509</v>
+        <v>16364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1562131988394111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07102669734340206</v>
+        <v>0.07988225230661171</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2772681164149327</v>
+        <v>0.2925547843270647</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -9142,19 +9142,19 @@
         <v>8339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4680</v>
+        <v>4910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12640</v>
+        <v>12802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2556692341633596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1434930450183279</v>
+        <v>0.1505250317660586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3875283206931872</v>
+        <v>0.3924948002693202</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -9163,19 +9163,19 @@
         <v>17077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11455</v>
+        <v>10933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25095</v>
+        <v>24125</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1928463948994582</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1293580325348535</v>
+        <v>0.1234673390934216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2833912392838256</v>
+        <v>0.2724367320267311</v>
       </c>
     </row>
     <row r="17">
@@ -9192,19 +9192,19 @@
         <v>4534</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1181</v>
+        <v>1138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10111</v>
+        <v>10522</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08106587515772835</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0211074190844634</v>
+        <v>0.02035139199200527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1807698535666864</v>
+        <v>0.1881106978181701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -9213,19 +9213,19 @@
         <v>3885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1434</v>
+        <v>1359</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7425</v>
+        <v>7417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1191109881825591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0439601403187445</v>
+        <v>0.04166118387394886</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2276379428918436</v>
+        <v>0.2273998232246617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -9234,19 +9234,19 @@
         <v>8419</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4166</v>
+        <v>4143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14676</v>
+        <v>14055</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09507924377860358</v>
+        <v>0.09507924377860356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04705127353314375</v>
+        <v>0.04678043778690501</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1657375716128341</v>
+        <v>0.158719259719245</v>
       </c>
     </row>
     <row r="18">
@@ -9263,19 +9263,19 @@
         <v>34686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26663</v>
+        <v>26540</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41073</v>
+        <v>41284</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6201037869950269</v>
+        <v>0.6201037869950268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4766788336376368</v>
+        <v>0.4744867207795431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7343016874151658</v>
+        <v>0.7380643288408298</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -9284,19 +9284,19 @@
         <v>17909</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13421</v>
+        <v>13402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22693</v>
+        <v>22090</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5490758173304222</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4114654617114109</v>
+        <v>0.4108775177154777</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6957534333625707</v>
+        <v>0.6772495306377652</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -9305,19 +9305,19 @@
         <v>52595</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43869</v>
+        <v>44061</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>61124</v>
+        <v>60706</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5939416588748442</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4954039621879845</v>
+        <v>0.497570532217937</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6902654354043729</v>
+        <v>0.6855406584770332</v>
       </c>
     </row>
     <row r="19">
@@ -9334,19 +9334,19 @@
         <v>7977</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3955</v>
+        <v>3677</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15026</v>
+        <v>14738</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1426171390078337</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07069861016628495</v>
+        <v>0.06573654028452464</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2686421699960136</v>
+        <v>0.2634929730749245</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -9355,19 +9355,19 @@
         <v>2484</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6009</v>
+        <v>5988</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07614396032365921</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02065971741311002</v>
+        <v>0.02098702431408728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1842217789188353</v>
+        <v>0.1835765462279069</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -9376,19 +9376,19 @@
         <v>10461</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5519</v>
+        <v>5812</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17399</v>
+        <v>16818</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1181327024470939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06232398454514565</v>
+        <v>0.06562923964081656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1964863060685346</v>
+        <v>0.1899243002942444</v>
       </c>
     </row>
     <row r="20">
@@ -9409,19 +9409,19 @@
         <v>4083</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1520</v>
+        <v>1593</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9012</v>
+        <v>8957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1296460553330477</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04824689786262618</v>
+        <v>0.05058423515321441</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2861292977619717</v>
+        <v>0.2843944721626706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -9430,19 +9430,19 @@
         <v>3849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1568</v>
+        <v>1719</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7871</v>
+        <v>7643</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1004828962580893</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04092812994357083</v>
+        <v>0.04488242575811141</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2054775794422773</v>
+        <v>0.1995421131940299</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -9451,19 +9451,19 @@
         <v>7932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4204</v>
+        <v>4022</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13206</v>
+        <v>13722</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.113642309488135</v>
+        <v>0.1136423094881349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06023590375053704</v>
+        <v>0.05762098494290505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1891963515237914</v>
+        <v>0.196596152149169</v>
       </c>
     </row>
     <row r="21">
@@ -9480,19 +9480,19 @@
         <v>4294</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1694</v>
+        <v>1565</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8970</v>
+        <v>9111</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1363376611306605</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05378226544194276</v>
+        <v>0.04968055458340973</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2847955955429415</v>
+        <v>0.2892751110048035</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -9501,19 +9501,19 @@
         <v>4697</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2049</v>
+        <v>1969</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8622</v>
+        <v>8525</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1226130631067017</v>
+        <v>0.1226130631067016</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05349466164611177</v>
+        <v>0.05141671371206517</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2250928377677726</v>
+        <v>0.2225660989264559</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -9522,19 +9522,19 @@
         <v>8991</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4858</v>
+        <v>4724</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14104</v>
+        <v>14662</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1288060703988583</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06959626704698953</v>
+        <v>0.06767905353734965</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2020655973116536</v>
+        <v>0.2100587523137245</v>
       </c>
     </row>
     <row r="22">
@@ -9551,19 +9551,19 @@
         <v>15789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10349</v>
+        <v>10397</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21257</v>
+        <v>21634</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.501315711665087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3285832641985735</v>
+        <v>0.3300925244645577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6749142720245821</v>
+        <v>0.686871726065504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -9572,19 +9572,19 @@
         <v>24577</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20445</v>
+        <v>19628</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29138</v>
+        <v>28934</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6416251299185697</v>
+        <v>0.6416251299185693</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5337672328808646</v>
+        <v>0.5124202850562308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7607115408342485</v>
+        <v>0.7553851127093595</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -9593,19 +9593,19 @@
         <v>40366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32868</v>
+        <v>33367</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>47181</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5783127291557066</v>
+        <v>0.5783127291557065</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4708935347891886</v>
+        <v>0.4780440088913036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.675946434221782</v>
+        <v>0.6759423002367715</v>
       </c>
     </row>
     <row r="23">
@@ -9622,19 +9622,19 @@
         <v>7329</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3621</v>
+        <v>3613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13385</v>
+        <v>13006</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2327005718712049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1149550401683813</v>
+        <v>0.114700595493711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4249820496631342</v>
+        <v>0.4129446437479468</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -9643,19 +9643,19 @@
         <v>5182</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2431</v>
+        <v>2411</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8875</v>
+        <v>9179</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1352789107166397</v>
+        <v>0.1352789107166396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06347592928487415</v>
+        <v>0.06294759140588699</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2317063682883927</v>
+        <v>0.2396340762844897</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -9664,19 +9664,19 @@
         <v>12511</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7404</v>
+        <v>7729</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18796</v>
+        <v>19190</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1792388909573001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.106075090492165</v>
+        <v>0.1107353940823626</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2692880437909267</v>
+        <v>0.2749316908949853</v>
       </c>
     </row>
     <row r="24">
@@ -9697,19 +9697,19 @@
         <v>5640</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2679</v>
+        <v>2620</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9008</v>
+        <v>9162</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3109776892189964</v>
+        <v>0.3109776892189965</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1477020239080812</v>
+        <v>0.1444519089886197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4966739425628701</v>
+        <v>0.5051707879672127</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -9718,19 +9718,19 @@
         <v>9111</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5705</v>
+        <v>5603</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12967</v>
+        <v>13556</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2516146046325066</v>
+        <v>0.2516146046325067</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1575478842154822</v>
+        <v>0.1547363577889554</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3581082169488607</v>
+        <v>0.3743775663813887</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -9739,19 +9739,19 @@
         <v>14751</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10560</v>
+        <v>10156</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20725</v>
+        <v>20295</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.271425826245378</v>
+        <v>0.2714258262453781</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1943151167011903</v>
+        <v>0.1868796945999356</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3813512503608623</v>
+        <v>0.3734410345598498</v>
       </c>
     </row>
     <row r="25">
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4780</v>
+        <v>5273</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08367481363005003</v>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2635696650635572</v>
+        <v>0.2907134603402634</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -9789,19 +9789,19 @@
         <v>3731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1613</v>
+        <v>1549</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6942</v>
+        <v>7607</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1030315581016965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04455598122676403</v>
+        <v>0.04276814121996646</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1917235484087701</v>
+        <v>0.2100888213896555</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -9810,19 +9810,19 @@
         <v>5248</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2394</v>
+        <v>2380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9554</v>
+        <v>9221</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09657163848830792</v>
+        <v>0.09657163848830794</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04405084085276884</v>
+        <v>0.04379842817013185</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1757915089165827</v>
+        <v>0.1696645633222177</v>
       </c>
     </row>
     <row r="26">
@@ -9839,19 +9839,19 @@
         <v>7645</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4356</v>
+        <v>4095</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11474</v>
+        <v>11317</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4215037936204586</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2401448072949327</v>
+        <v>0.2257575368513995</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6326435128742646</v>
+        <v>0.6239460811631597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -9860,19 +9860,19 @@
         <v>17583</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13637</v>
+        <v>12938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21924</v>
+        <v>22216</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4856085977430739</v>
+        <v>0.4856085977430738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3766327154304354</v>
+        <v>0.3573177401175606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6054733197820287</v>
+        <v>0.6135583251516291</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -9881,19 +9881,19 @@
         <v>25228</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19496</v>
+        <v>19206</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30551</v>
+        <v>30874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4642149237153622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3587431518404183</v>
+        <v>0.3533999592278635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5621637364509272</v>
+        <v>0.5680969633027972</v>
       </c>
     </row>
     <row r="27">
@@ -9910,19 +9910,19 @@
         <v>3334</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6896</v>
+        <v>6987</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1838437035304949</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05357170411074108</v>
+        <v>0.05314397431691362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3802106728373112</v>
+        <v>0.3852491940895499</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -9931,19 +9931,19 @@
         <v>5784</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3023</v>
+        <v>3171</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9371</v>
+        <v>9688</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1597452395227227</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08349083633301381</v>
+        <v>0.08757180582206255</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2588054206549134</v>
+        <v>0.267564359421777</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -9952,19 +9952,19 @@
         <v>9119</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5320</v>
+        <v>5385</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14021</v>
+        <v>14370</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1677876115509518</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09789252925578851</v>
+        <v>0.09908564282034343</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2579990609948603</v>
+        <v>0.2644187440951658</v>
       </c>
     </row>
     <row r="28">
@@ -9985,19 +9985,19 @@
         <v>6008</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3045</v>
+        <v>3232</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9321</v>
+        <v>9558</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2610805936133896</v>
+        <v>0.2610805936133897</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1323176011582723</v>
+        <v>0.1404307235066978</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4050205344794547</v>
+        <v>0.4153508678286501</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -10006,19 +10006,19 @@
         <v>13364</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9389</v>
+        <v>9217</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18254</v>
+        <v>17944</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2358876865476227</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1657283264220747</v>
+        <v>0.1626877751535357</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3221982141131289</v>
+        <v>0.3167336912521596</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -10027,19 +10027,19 @@
         <v>19372</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14520</v>
+        <v>14569</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25233</v>
+        <v>25477</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2431648944085187</v>
+        <v>0.2431648944085186</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1822586416031962</v>
+        <v>0.1828789904407579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3167259473437743</v>
+        <v>0.3197927238238363</v>
       </c>
     </row>
     <row r="29">
@@ -10056,19 +10056,19 @@
         <v>3930</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1598</v>
+        <v>1736</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7352</v>
+        <v>8260</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1707614649183138</v>
+        <v>0.1707614649183139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06945428737170156</v>
+        <v>0.07545623200672545</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3194562443874667</v>
+        <v>0.3589414996135804</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -10077,19 +10077,19 @@
         <v>14494</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9928</v>
+        <v>10108</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19082</v>
+        <v>19922</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2558254874769695</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1752306647910492</v>
+        <v>0.1784086326522874</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.336820210450992</v>
+        <v>0.3516414810997505</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -10098,19 +10098,19 @@
         <v>18423</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13726</v>
+        <v>13518</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24866</v>
+        <v>24830</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2312539454938517</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1722865783098118</v>
+        <v>0.1696781541457481</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3121235752719371</v>
+        <v>0.3116737688413503</v>
       </c>
     </row>
     <row r="30">
@@ -10127,19 +10127,19 @@
         <v>7867</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4233</v>
+        <v>4334</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11585</v>
+        <v>11801</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3418608226822671</v>
+        <v>0.3418608226822673</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1839302507812696</v>
+        <v>0.1883266004670859</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5034155684750994</v>
+        <v>0.5127878717769979</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>41</v>
@@ -10148,19 +10148,19 @@
         <v>21161</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16214</v>
+        <v>16060</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27073</v>
+        <v>27205</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3735151148218466</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2861847091241331</v>
+        <v>0.2834799533484653</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4778657209801185</v>
+        <v>0.4801868342192162</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>53</v>
@@ -10169,19 +10169,19 @@
         <v>29028</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22436</v>
+        <v>22984</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35740</v>
+        <v>35398</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3643714751859803</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2816224295409757</v>
+        <v>0.2885026574604556</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4486182686298105</v>
+        <v>0.4443227569596892</v>
       </c>
     </row>
     <row r="31">
@@ -10198,19 +10198,19 @@
         <v>5208</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2436</v>
+        <v>2399</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9856</v>
+        <v>9122</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2262971187860294</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1058416946376669</v>
+        <v>0.1042309105486664</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4282587988638936</v>
+        <v>0.3963840204998411</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -10219,19 +10219,19 @@
         <v>7635</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4407</v>
+        <v>4339</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12632</v>
+        <v>12620</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1347717111535611</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07779675603792809</v>
+        <v>0.07658000539063822</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2229633055539394</v>
+        <v>0.2227618134751993</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -10240,19 +10240,19 @@
         <v>12843</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8297</v>
+        <v>8283</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19380</v>
+        <v>19398</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1612096849116494</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1041402018376011</v>
+        <v>0.1039681302935924</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2432683037249094</v>
+        <v>0.2434835812321105</v>
       </c>
     </row>
     <row r="32">
@@ -10273,19 +10273,19 @@
         <v>33861</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23571</v>
+        <v>23504</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>45477</v>
+        <v>46512</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1532007515178424</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1066436414711335</v>
+        <v>0.1063412246143457</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2057547508631796</v>
+        <v>0.2104399273231093</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>73</v>
@@ -10294,19 +10294,19 @@
         <v>42901</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>33764</v>
+        <v>33427</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53092</v>
+        <v>53221</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1847737360606194</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1454227086088456</v>
+        <v>0.1439694484624117</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2286675902005628</v>
+        <v>0.2292229663175005</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>113</v>
@@ -10315,19 +10315,19 @@
         <v>76762</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>62799</v>
+        <v>62304</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>93278</v>
+        <v>91961</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1693758866814272</v>
+        <v>0.1693758866814273</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1385661704445633</v>
+        <v>0.1374737962490031</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2058205367041098</v>
+        <v>0.2029136997489991</v>
       </c>
     </row>
     <row r="33">
@@ -10344,19 +10344,19 @@
         <v>18847</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08526971281777303</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>64</v>
@@ -10365,19 +10365,19 @@
         <v>42255</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>32450</v>
+        <v>32492</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>53367</v>
+        <v>52818</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1819907115133192</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1397618249107318</v>
+        <v>0.1399433815853128</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2298497208102328</v>
+        <v>0.2274874451206909</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>84</v>
@@ -10386,19 +10386,19 @@
         <v>61101</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>48279</v>
+        <v>49329</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>75868</v>
+        <v>77034</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.1348207847139925</v>
+        <v>0.1348207847139926</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1065293528153712</v>
+        <v>0.1088463010599489</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1674040507758118</v>
+        <v>0.1699762688795675</v>
       </c>
     </row>
     <row r="34">
@@ -10415,19 +10415,19 @@
         <v>132316</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>181</v>
@@ -10436,19 +10436,19 @@
         <v>120111</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>107306</v>
+        <v>106559</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>134976</v>
+        <v>132966</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5173194707825806</v>
+        <v>0.5173194707825804</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4621661712979104</v>
+        <v>0.4589487915012882</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5813431349736726</v>
+        <v>0.5726842390595484</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>297</v>
@@ -10457,19 +10457,19 @@
         <v>252427</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>230445</v>
+        <v>230404</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>270771</v>
+        <v>272885</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5569840114204124</v>
+        <v>0.5569840114204125</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5084816416038828</v>
+        <v>0.5083893107531646</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5974611030245389</v>
+        <v>0.6021244847676025</v>
       </c>
     </row>
     <row r="35">
@@ -10486,19 +10486,19 @@
         <v>36000</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>41</v>
@@ -10507,19 +10507,19 @@
         <v>26913</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>18447</v>
+        <v>19496</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>39086</v>
+        <v>39128</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1159160816434809</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07945209617903187</v>
+        <v>0.08397043968260159</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.168345653875251</v>
+        <v>0.1685264713670262</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>77</v>
@@ -10528,19 +10528,19 @@
         <v>62913</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49392</v>
+        <v>48983</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79018</v>
+        <v>78981</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1388193171841677</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1089846622006456</v>
+        <v>0.1080821222570363</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1743550545165658</v>
+        <v>0.1742723104973218</v>
       </c>
     </row>
     <row r="36">
